--- a/regions/4/mretsveloba/mretsveloba.xlsx
+++ b/regions/4/mretsveloba/mretsveloba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28410" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -506,17 +506,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.85546875" customWidth="1"/>
-    <col min="2" max="11" width="9.140625" customWidth="1"/>
+    <col min="2" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -533,7 +533,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="7">
         <v>2006</v>
@@ -577,8 +577,17 @@
       <c r="O2" s="8">
         <v>2019</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="P2" s="8">
+        <v>2020</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -624,8 +633,17 @@
       <c r="O3" s="9">
         <v>718</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="P3" s="9">
+        <v>763.8</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>986.9</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1190.9000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -671,8 +689,17 @@
       <c r="O4" s="9">
         <v>706.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="P4" s="9">
+        <v>748.8</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>959.2</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1168.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -718,8 +745,17 @@
       <c r="O5" s="11">
         <v>10466</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="P5" s="11">
+        <v>10959</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>12049</v>
+      </c>
+      <c r="R5" s="11">
+        <v>12137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -765,8 +801,17 @@
       <c r="O6" s="11">
         <v>10016</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="P6" s="11">
+        <v>10461</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>11419</v>
+      </c>
+      <c r="R6" s="11">
+        <v>11474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -812,8 +857,17 @@
       <c r="O7" s="9">
         <v>824</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="P7" s="9">
+        <v>833.3</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>894.1</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1085.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -859,8 +913,17 @@
       <c r="O8" s="9">
         <v>458.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="P8" s="9">
+        <v>475.5</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>668.2</v>
+      </c>
+      <c r="R8" s="9">
+        <v>674.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -906,8 +969,17 @@
       <c r="O9" s="9">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="P9" s="9">
+        <v>106.6</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>124.9</v>
+      </c>
+      <c r="R9" s="9">
+        <v>151.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -953,8 +1025,17 @@
       <c r="O10" s="9">
         <v>247.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="P10" s="9">
+        <v>273.3</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="R10" s="9">
+        <v>494.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1000,8 +1081,17 @@
       <c r="O11" s="9">
         <v>50.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="P11" s="9">
+        <v>52.4</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>49.7</v>
+      </c>
+      <c r="R11" s="9">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1047,8 +1137,17 @@
       <c r="O12" s="9">
         <v>495.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="9">
+        <v>513.1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>717.8</v>
+      </c>
+      <c r="R12" s="9">
+        <v>716.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1061,7 +1160,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>10</v>
       </c>

--- a/regions/4/mretsveloba/mretsveloba.xlsx
+++ b/regions/4/mretsveloba/mretsveloba.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28410" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +129,10 @@
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -171,8 +175,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -203,8 +209,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -506,17 +514,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.85546875" customWidth="1"/>
-    <col min="2" max="14" width="9.140625" customWidth="1"/>
+    <col min="2" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -533,7 +541,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="7">
         <v>2006</v>
@@ -586,8 +594,11 @@
       <c r="R2" s="8">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S2" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -642,8 +653,11 @@
       <c r="R3" s="9">
         <v>1190.9000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S3" s="9">
+        <v>1053.5999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -698,8 +712,11 @@
       <c r="R4" s="9">
         <v>1168.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S4" s="9">
+        <v>1023.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -754,8 +771,11 @@
       <c r="R5" s="11">
         <v>12137</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S5" s="11">
+        <v>11468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -810,8 +830,11 @@
       <c r="R6" s="11">
         <v>11474</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S6" s="11">
+        <v>11142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -866,8 +889,11 @@
       <c r="R7" s="9">
         <v>1085.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S7" s="9">
+        <v>1220.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -922,8 +948,11 @@
       <c r="R8" s="9">
         <v>674.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S8" s="9">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -978,8 +1007,11 @@
       <c r="R9" s="9">
         <v>151.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S9" s="9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -1034,8 +1066,11 @@
       <c r="R10" s="9">
         <v>494.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S10" s="9">
+        <v>410.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1090,8 +1125,11 @@
       <c r="R11" s="9">
         <v>47.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S11" s="9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1146,8 +1184,11 @@
       <c r="R12" s="9">
         <v>716.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="9">
+        <v>727.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1160,7 +1201,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
